--- a/feature_excel/feature_map.xlsx
+++ b/feature_excel/feature_map.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahbubur.rahman\PycharmProjects\MF_Controller_Mapping\feature_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88168EE5-5A1B-49EC-8DB7-214FDE294487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB8DAA-21F8-42F1-9413-23496C17B8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA6E1B27-F368-428F-87A6-B5140D5332A8}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{CA6E1B27-F368-428F-87A6-B5140D5332A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
     <sheet name="Feature_Controller_Map" sheetId="2" r:id="rId2"/>
-    <sheet name="Voucher Map" sheetId="3" r:id="rId3"/>
+    <sheet name="User_Access_Map" sheetId="4" r:id="rId3"/>
+    <sheet name="Voucher_Map" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="110">
   <si>
     <t>Feature Name</t>
   </si>
@@ -350,6 +351,24 @@
   </si>
   <si>
     <t>2103010101-01 - Term Deposit Scheme</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>SA, BA</t>
+  </si>
+  <si>
+    <t>Feature_Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>ROLE_BA, ROLE_SA</t>
   </si>
 </sst>
 </file>
@@ -370,7 +389,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +408,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -402,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,6 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DD99A8-924D-49AA-8D53-DFB21629FA3D}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -904,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE01A605-CA67-47FA-B666-9686D0A7CCB4}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,10 +1271,189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BD6E69-F4C8-4738-BF1F-E0874DF05924}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="84.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C64FFF-D2ED-4EFC-86D2-A0FECE3780AE}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/feature_excel/feature_map.xlsx
+++ b/feature_excel/feature_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahbubur.rahman\PycharmProjects\MF_Controller_Mapping\feature_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB8DAA-21F8-42F1-9413-23496C17B8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE44045-B35E-47EB-8E63-CE5369BA3DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{CA6E1B27-F368-428F-87A6-B5140D5332A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA6E1B27-F368-428F-87A6-B5140D5332A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>Feature Name</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>BalanceTransferController</t>
-  </si>
-  <si>
-    <t>AmarHishab Saving</t>
   </si>
   <si>
     <t>Special Savings</t>
@@ -776,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DD99A8-924D-49AA-8D53-DFB21629FA3D}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -825,7 +822,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -838,9 +835,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -852,9 +847,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -866,9 +859,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -880,9 +871,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -894,9 +883,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -909,16 +896,16 @@
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1210,16 +1197,16 @@
         <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="D34" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1228,7 +1215,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1224,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1246,7 +1233,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,15 +1241,15 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E39" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1291,13 +1278,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1311,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1325,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1339,7 +1326,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1353,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1367,7 +1354,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1381,7 +1368,7 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1395,7 +1382,7 @@
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1409,7 +1396,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1423,7 +1410,7 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1431,13 +1418,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1453,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C64FFF-D2ED-4EFC-86D2-A0FECE3780AE}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1537,7 +1524,7 @@
         <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>81</v>
